--- a/Mifos Automation Excels/Client/3524-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3524-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
     <sheet name="Prepay Loan" sheetId="6" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
-    <sheet name="Repayment schedule" sheetId="1" r:id="rId4"/>
-    <sheet name="Transactions" sheetId="4" r:id="rId5"/>
+    <sheet name="w" sheetId="1" r:id="rId4"/>
+    <sheet name="Repayment schedule" sheetId="7" r:id="rId5"/>
+    <sheet name="Transactions" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -30,9 +36,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -197,8 +200,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +221,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -245,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -268,45 +279,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +317,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,6 +329,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +413,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,6 +465,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,123 +671,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="4">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="4">
         <v>42005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4">
         <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4">
         <v>42005</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4">
         <v>42005</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="6">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -792,43 +811,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>42036</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="13">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>9214.2000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>50</v>
+      <c r="A5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -846,111 +865,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>10000</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>10000</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>101.92</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>101.92</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -961,10 +980,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,133 +998,132 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10">
         <v>42005</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11">
         <v>10000</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>31</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>42036</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>42036</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="13">
+      <c r="E3" s="15"/>
+      <c r="F3" s="11">
         <v>10000</v>
       </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
         <v>101.92</v>
       </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="12">
         <v>10101.92</v>
       </c>
-      <c r="L3" s="14">
-        <v>10101.92</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
+      <c r="M3" s="12">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1116,6 +1134,147 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="10">
+        <v>42036</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>101.92</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="12">
+        <v>10101.92</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -1125,144 +1284,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>18002</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>18002</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>42036</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="12">
         <v>9214.2000000000007</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>9214.2000000000007</v>
       </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>18001</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10">
         <v>42036</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="9">
         <v>887.72</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>785.8</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>101.92</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>9214.2000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>18000</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10">
         <v>42005</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11">
         <v>10000</v>
       </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
         <v>10000</v>
       </c>
     </row>
